--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD556E36-60A8-48AA-A45A-2BFE9127EF91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{90BA16F3-6745-4EFC-8ADE-6C6BC5DB5AE6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,13 +53,21 @@
   </si>
   <si>
     <t>张拓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得I体会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成语，优秀句子，陌生汉字，必须体现出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,7 +116,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -221,7 +226,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -415,31 +420,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59F4F6-9A0A-48AE-B5A6-7AE76F98F861}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -458,8 +464,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>20190212</v>
       </c>
@@ -474,10 +483,18 @@
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B50A7-DF8E-4EFC-B6AA-D35E7001A959}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,13 +67,25 @@
   </si>
   <si>
     <t>成语，优秀句子，陌生汉字，必须体现出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,看完《领导力21条法则》的第20条法则 （爆炸性倍增法则）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张拓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +134,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,32 +438,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -468,7 +486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20190212</v>
       </c>
@@ -484,8 +502,25 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B50A7-DF8E-4EFC-B6AA-D35E7001A959}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B427A9DA-A358-42AA-8D98-8AAB426F72EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,22 @@
   </si>
   <si>
     <t>张拓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.看完《领导力21条法则》的第21条法则 （传承法则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">张拓 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.把《简爱》看到120页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回顾《愿你，归来仍是少年》。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
@@ -510,6 +526,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20190212</v>
+      </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -521,6 +540,75 @@
       </c>
       <c r="E3" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20190213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21090213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20190213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20190213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20190213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20130213</v>
       </c>
     </row>
   </sheetData>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B427A9DA-A358-42AA-8D98-8AAB426F72EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC9C9C1-3622-45A0-9FB4-4AA531779FE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>回顾《愿你，归来仍是少年》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -260,7 +264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -465,7 +469,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -479,7 +483,7 @@
     <col min="7" max="7" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -561,6 +565,9 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -578,6 +585,9 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -595,6 +605,9 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -614,6 +627,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC9C9C1-3622-45A0-9FB4-4AA531779FE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA3D43-62E3-4CF1-B9D2-54B0C099000D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,34 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹲起20个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张拓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做10数学题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰卧起坐30个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步五公里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《七步诗》和《从军行》背下来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -613,15 +641,404 @@
       <c r="A7">
         <v>20190213</v>
       </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20190213</v>
       </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20130213</v>
+        <v>20190213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20190113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20190213</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20190214</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20190214</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20190214</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20190214</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20190214</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20190214</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20190214</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20190214</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20190215</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20190215</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20190215</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20190215</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20190215</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20190215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20190215</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20190216</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20190216</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20190216</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20190216</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20190216</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20190216</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>20190216</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20190216</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20190217</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20190217</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20190217</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20190217</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20190217</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20190217</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20190217</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20190217</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20190217</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20190218</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20190218</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20190218</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20190218</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20190218</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20190218</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA3D43-62E3-4CF1-B9D2-54B0C099000D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E331D-C50F-49CF-BF46-8C06EDA00279}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +128,38 @@
   </si>
   <si>
     <t>把《七步诗》和《从军行》背下来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《古诗75首+80首》的80到85首背下来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把寒假作业做完。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《史记》看到50页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《别让，拖延毁掉你》总结一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试把108位好将的前20名背下来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做蹲起35个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定******</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -741,6 +774,9 @@
       <c r="A12">
         <v>20190214</v>
       </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
@@ -749,6 +785,9 @@
       <c r="A13">
         <v>20190214</v>
       </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -757,6 +796,9 @@
       <c r="A14">
         <v>20190214</v>
       </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -765,6 +807,9 @@
       <c r="A15">
         <v>20190214</v>
       </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
@@ -773,6 +818,9 @@
       <c r="A16">
         <v>20190214</v>
       </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
@@ -781,6 +829,9 @@
       <c r="A17">
         <v>20190214</v>
       </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
@@ -789,6 +840,9 @@
       <c r="A18">
         <v>20190214</v>
       </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
@@ -796,6 +850,9 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20190214</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E331D-C50F-49CF-BF46-8C06EDA00279}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE54914-EA40-4A85-8E4B-CCD82C60E4C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,18 +135,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>把寒假作业做完。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>把《史记》看到50页。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>把《别让，拖延毁掉你》总结一下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尝试把108位好将的前20名背下来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +152,18 @@
   </si>
   <si>
     <t>待定******</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把六年级上册的寒假作业做完。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《别让，拖延毁掉你》用笔记的形式总结一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -777,8 +781,17 @@
       <c r="B12" t="s">
         <v>25</v>
       </c>
+      <c r="C12" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="E12" t="s">
         <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,7 +799,13 @@
         <v>20190214</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.5</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -797,7 +816,13 @@
         <v>20190214</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.25E-2</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -808,7 +833,10 @@
         <v>20190214</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -819,46 +847,52 @@
         <v>20190214</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20190214</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20190214</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20190214</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20190215</v>
       </c>
@@ -866,7 +900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20190215</v>
       </c>
@@ -874,7 +908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20190215</v>
       </c>
@@ -882,7 +916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20190215</v>
       </c>
@@ -890,7 +924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20190215</v>
       </c>
@@ -898,7 +932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20190215</v>
       </c>
@@ -906,7 +940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20190215</v>
       </c>
@@ -914,7 +948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20190216</v>
       </c>
@@ -922,7 +956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20190216</v>
       </c>
@@ -930,7 +964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20190216</v>
       </c>
@@ -938,7 +972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20190216</v>
       </c>
@@ -946,7 +980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20190216</v>
       </c>
@@ -954,7 +988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20190216</v>
       </c>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE54914-EA40-4A85-8E4B-CCD82C60E4C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75230552-5E39-4448-8BCA-7B97B01C9BE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,30 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《童年》从1页看到60页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《边城》原著从1页看到30页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹲起50个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会5个英语单词。（随机）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补前天的任务。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +211,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,11 +248,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -795,38 +842,40 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>20190214</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>0.5</v>
       </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>20190214</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -841,6 +890,9 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -896,6 +948,9 @@
       <c r="A20">
         <v>20190215</v>
       </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
@@ -904,6 +959,9 @@
       <c r="A21">
         <v>20190215</v>
       </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
@@ -912,6 +970,9 @@
       <c r="A22">
         <v>20190215</v>
       </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
       <c r="E22" t="s">
         <v>19</v>
       </c>
@@ -920,6 +981,9 @@
       <c r="A23">
         <v>20190215</v>
       </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
@@ -928,6 +992,9 @@
       <c r="A24">
         <v>20190215</v>
       </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
       <c r="E24" t="s">
         <v>19</v>
       </c>
@@ -936,6 +1003,9 @@
       <c r="A25">
         <v>20190215</v>
       </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
       <c r="E25" t="s">
         <v>19</v>
       </c>
@@ -943,6 +1013,9 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20190215</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75230552-5E39-4448-8BCA-7B97B01C9BE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224E065-7774-4517-B036-AD97DE6D1985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,7 +581,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -932,6 +932,9 @@
       <c r="E18" t="s">
         <v>19</v>
       </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -943,6 +946,9 @@
       <c r="E19" t="s">
         <v>19</v>
       </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -954,6 +960,9 @@
       <c r="E20" t="s">
         <v>19</v>
       </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -965,6 +974,9 @@
       <c r="E21" t="s">
         <v>19</v>
       </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -976,6 +988,9 @@
       <c r="E22" t="s">
         <v>19</v>
       </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -987,6 +1002,9 @@
       <c r="E23" t="s">
         <v>19</v>
       </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -997,6 +1015,9 @@
       </c>
       <c r="E24" t="s">
         <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224E065-7774-4517-B036-AD97DE6D1985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C49A9F-795F-4B1B-BD60-A3E053FB74EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>补前天的任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《同步阅读》的1页至60页，看完。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹲起40个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把杯弓蛇影的故事学习一下。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +228,22 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -248,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +290,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -860,22 +897,22 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>20190214</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1046,6 +1083,9 @@
       <c r="A27">
         <v>20190216</v>
       </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
       <c r="E27" t="s">
         <v>19</v>
       </c>
@@ -1054,6 +1094,9 @@
       <c r="A28">
         <v>20190216</v>
       </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
       <c r="E28" t="s">
         <v>19</v>
       </c>
@@ -1061,6 +1104,9 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20190216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C49A9F-795F-4B1B-BD60-A3E053FB74EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D540BE9-60DB-4DF6-A656-517E844FFF17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>把杯弓蛇影的故事学习一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把亨利的短篇小说的1至20页。看一遍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +622,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1116,6 +1120,9 @@
       <c r="A30">
         <v>20190216</v>
       </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D540BE9-60DB-4DF6-A656-517E844FFF17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D9558-7E54-4F8E-8AFE-E932C859235E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1071,6 +1071,9 @@
       <c r="E25" t="s">
         <v>19</v>
       </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1093,6 +1096,9 @@
       <c r="E27" t="s">
         <v>19</v>
       </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1104,6 +1110,9 @@
       <c r="E28" t="s">
         <v>19</v>
       </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1115,6 +1124,9 @@
       <c r="E29" t="s">
         <v>19</v>
       </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1125,6 +1137,9 @@
       </c>
       <c r="E30" t="s">
         <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D9558-7E54-4F8E-8AFE-E932C859235E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD49B5CB-7E1B-4513-86CC-E4B668710E4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +203,10 @@
   </si>
   <si>
     <t>把亨利的短篇小说的1至20页。看一遍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打发第三方额热污染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +625,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1149,9 @@
       <c r="A31">
         <v>20190216</v>
       </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
       <c r="E31" t="s">
         <v>19</v>
       </c>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD49B5CB-7E1B-4513-86CC-E4B668710E4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4A42F8-7285-40CB-9F9C-18EA24DAC2D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>打发第三方额热污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把六年级下册的语文书浏览一遍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +629,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1160,6 +1164,9 @@
       <c r="A32">
         <v>20190216</v>
       </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
       <c r="E32" t="s">
         <v>19</v>
       </c>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4A42F8-7285-40CB-9F9C-18EA24DAC2D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607F40F-D061-49D8-ABC2-B289F136FCD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,46 @@
   </si>
   <si>
     <t>把六年级下册的语文书浏览一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把数学从9页写到20页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把语文从27页写到35页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把简版史记看完。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把数学从20页写到40页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把语文35页写到50页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去社区把回执领回来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把数学从40页写到50页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把语文50页写到63页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把数学从50页写到63页。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1191,6 +1231,9 @@
       <c r="A35">
         <v>20190217</v>
       </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
       <c r="E35" t="s">
         <v>19</v>
       </c>
@@ -1199,6 +1242,9 @@
       <c r="A36">
         <v>20190217</v>
       </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
       <c r="E36" t="s">
         <v>19</v>
       </c>
@@ -1207,13 +1253,19 @@
       <c r="A37">
         <v>20190217</v>
       </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
       <c r="E37" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>20190217</v>
+        <v>20190218</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -1221,7 +1273,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20190217</v>
+        <v>20190218</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
@@ -1229,7 +1284,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20190217</v>
+        <v>20190218</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -1237,7 +1295,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20190217</v>
+        <v>20190218</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -1245,7 +1306,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20190217</v>
+        <v>20190219</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
@@ -1253,7 +1317,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20190217</v>
+        <v>20190219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
@@ -1261,7 +1328,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20190218</v>
+        <v>20190219</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -1269,7 +1339,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20190218</v>
+        <v>20190219</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
@@ -1277,7 +1347,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20190218</v>
+        <v>20190220</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -1285,7 +1355,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20190218</v>
+        <v>20190220</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -1293,7 +1363,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20190218</v>
+        <v>20190220</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
@@ -1301,7 +1371,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20190218</v>
+        <v>20190220</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607F40F-D061-49D8-ABC2-B289F136FCD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1465C28-4641-4965-9B5D-F1753C380BCE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1465C28-4641-4965-9B5D-F1753C380BCE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E9DF5-0F16-47FA-A0D6-432506168A84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,22 @@
   </si>
   <si>
     <t>把数学从50页写到63页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写数学12道题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张拓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧语文书的第1课的注释抄完。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1199,6 +1215,9 @@
       <c r="E31" t="s">
         <v>19</v>
       </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1210,24 +1229,33 @@
       <c r="E32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20190216</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20190216</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20190217</v>
       </c>
@@ -1237,8 +1265,11 @@
       <c r="E35" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20190217</v>
       </c>
@@ -1248,8 +1279,11 @@
       <c r="E36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20190217</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="E37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20190218</v>
       </c>
@@ -1270,8 +1307,11 @@
       <c r="E38" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20190218</v>
       </c>
@@ -1281,8 +1321,11 @@
       <c r="E39" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20190218</v>
       </c>
@@ -1292,8 +1335,11 @@
       <c r="E40" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20190218</v>
       </c>
@@ -1303,8 +1349,11 @@
       <c r="E41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20190219</v>
       </c>
@@ -1314,8 +1363,11 @@
       <c r="E42" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20190219</v>
       </c>
@@ -1325,8 +1377,11 @@
       <c r="E43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20190219</v>
       </c>
@@ -1336,45 +1391,91 @@
       <c r="E44" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20190219</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20190220</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20190220</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20190220</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20190220</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>20190227</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20190227</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E9DF5-0F16-47FA-A0D6-432506168A84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DEB900-3AE2-4F7A-873E-B1456D37EC05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>吧语文书的第1课的注释抄完。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听写2，3课。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学题5道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背2课的第3自然段。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -961,7 +973,9 @@
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -979,7 +993,9 @@
       <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1148,6 +1164,9 @@
       <c r="E26" t="s">
         <v>19</v>
       </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1475,6 +1494,48 @@
         <v>57</v>
       </c>
       <c r="F51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>20190228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>20190228</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>20190228</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" t="s">
         <v>58</v>
       </c>
     </row>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DEB900-3AE2-4F7A-873E-B1456D37EC05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41629AD8-C73E-4041-8EA2-F00552D077AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>背2课的第3自然段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张拓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把语文书的第一单元背下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把语文书的第2课背下来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1539,6 +1551,44 @@
         <v>58</v>
       </c>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>20190302</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>20190302</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>20190302</v>
+      </c>
+      <c r="E57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>20190302</v>
+      </c>
+      <c r="E58" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41629AD8-C73E-4041-8EA2-F00552D077AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE21E4A1-273E-4CA5-98CC-46D3CCC5DCB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4308" yWindow="960" windowWidth="20580" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,30 @@
   </si>
   <si>
     <t>把语文书的第2课背下来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张拓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学小状元4，5页写完。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把语文书的第2单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把语文书的第2课背下来。SSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1561,6 +1585,9 @@
       <c r="E55" t="s">
         <v>63</v>
       </c>
+      <c r="F55" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -1572,6 +1599,9 @@
       <c r="E56" t="s">
         <v>63</v>
       </c>
+      <c r="F56" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -1580,6 +1610,9 @@
       <c r="E57" t="s">
         <v>63</v>
       </c>
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -1587,6 +1620,56 @@
       </c>
       <c r="E58" t="s">
         <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>20190309</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>20190309</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>20190309</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>20190309</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE21E4A1-273E-4CA5-98CC-46D3CCC5DCB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4308" yWindow="960" windowWidth="20580" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="03" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,10 +301,6 @@
   </si>
   <si>
     <t>把语文书的第2单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -321,7 +311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +408,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -528,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -722,32 +712,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="10.75" customHeight="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -770,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>20190212</v>
       </c>
@@ -793,7 +783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>20190212</v>
       </c>
@@ -813,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>20190213</v>
       </c>
@@ -833,7 +823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>21090213</v>
       </c>
@@ -853,7 +843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>20190213</v>
       </c>
@@ -873,7 +863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>20190213</v>
       </c>
@@ -893,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>20190213</v>
       </c>
@@ -913,7 +903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>20190213</v>
       </c>
@@ -933,7 +923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>20190113</v>
       </c>
@@ -953,7 +943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>20190213</v>
       </c>
@@ -973,7 +963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>20190214</v>
       </c>
@@ -993,7 +983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>20190214</v>
       </c>
@@ -1013,7 +1003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="5">
         <v>20190214</v>
       </c>
@@ -1033,7 +1023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>20190214</v>
       </c>
@@ -1050,7 +1040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>20190214</v>
       </c>
@@ -1064,7 +1054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>20190214</v>
       </c>
@@ -1078,7 +1068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>20190214</v>
       </c>
@@ -1092,7 +1082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>20190214</v>
       </c>
@@ -1106,7 +1096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>20190215</v>
       </c>
@@ -1120,7 +1110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20190215</v>
       </c>
@@ -1134,7 +1124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>20190215</v>
       </c>
@@ -1148,7 +1138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>20190215</v>
       </c>
@@ -1162,7 +1152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>20190215</v>
       </c>
@@ -1176,7 +1166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>20190215</v>
       </c>
@@ -1190,7 +1180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>20190215</v>
       </c>
@@ -1204,7 +1194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>20190216</v>
       </c>
@@ -1218,7 +1208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>20190216</v>
       </c>
@@ -1232,7 +1222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>20190216</v>
       </c>
@@ -1246,7 +1236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>20190216</v>
       </c>
@@ -1260,7 +1250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>20190216</v>
       </c>
@@ -1274,7 +1264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>20190216</v>
       </c>
@@ -1288,7 +1278,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>20190216</v>
       </c>
@@ -1299,7 +1289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>20190216</v>
       </c>
@@ -1310,7 +1300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>20190217</v>
       </c>
@@ -1324,7 +1314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>20190217</v>
       </c>
@@ -1338,7 +1328,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>20190217</v>
       </c>
@@ -1352,7 +1342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>20190218</v>
       </c>
@@ -1366,7 +1356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>20190218</v>
       </c>
@@ -1380,7 +1370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>20190218</v>
       </c>
@@ -1394,7 +1384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>20190218</v>
       </c>
@@ -1408,7 +1398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>20190219</v>
       </c>
@@ -1422,7 +1412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>20190219</v>
       </c>
@@ -1436,7 +1426,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>20190219</v>
       </c>
@@ -1450,7 +1440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>20190219</v>
       </c>
@@ -1461,7 +1451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>20190220</v>
       </c>
@@ -1472,7 +1462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>20190220</v>
       </c>
@@ -1483,7 +1473,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>20190220</v>
       </c>
@@ -1494,7 +1484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>20190220</v>
       </c>
@@ -1505,7 +1495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>20190227</v>
       </c>
@@ -1519,7 +1509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>20190227</v>
       </c>
@@ -1533,7 +1523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>20190228</v>
       </c>
@@ -1547,7 +1537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>20190228</v>
       </c>
@@ -1561,7 +1551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>20190228</v>
       </c>
@@ -1575,7 +1565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>20190302</v>
       </c>
@@ -1589,7 +1579,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>20190302</v>
       </c>
@@ -1603,7 +1593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>20190302</v>
       </c>
@@ -1614,7 +1604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>20190302</v>
       </c>
@@ -1625,7 +1615,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>20190309</v>
       </c>
@@ -1639,7 +1629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>20190309</v>
       </c>
@@ -1650,23 +1640,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>20190309</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>20190309</v>
-      </c>
-      <c r="B62" t="s">
-        <v>70</v>
       </c>
       <c r="E62" t="s">
         <v>66</v>
@@ -1675,7 +1662,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4682C1-B348-4F65-AC89-29BA0D892229}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13980"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="03" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="83">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,18 +306,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>把语文书的第2单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>把语文书的第2课背下来。SSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把语文书的第2单元日积月累背下来 .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写作文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张拓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《童年 》从1页看到100页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 把《中国历史》从1页看到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《中国历史》从1页看到80页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《猎人笔记》从23页看到104页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张拓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,24 +445,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,7 +520,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -518,7 +572,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -712,32 +766,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="10.75" customHeight="1">
+    <row r="1" spans="1:7" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -760,8 +814,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>20190212</v>
       </c>
       <c r="B2" t="s">
@@ -783,8 +837,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>20190212</v>
       </c>
       <c r="B3" t="s">
@@ -803,8 +857,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>20190213</v>
       </c>
       <c r="B4" t="s">
@@ -823,8 +877,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>21090213</v>
       </c>
       <c r="B5" t="s">
@@ -843,8 +897,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>20190213</v>
       </c>
       <c r="B6" t="s">
@@ -863,8 +917,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>20190213</v>
       </c>
       <c r="B7" t="s">
@@ -883,8 +937,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>20190213</v>
       </c>
       <c r="B8" t="s">
@@ -903,8 +957,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>20190213</v>
       </c>
       <c r="B9" t="s">
@@ -923,8 +977,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>20190113</v>
       </c>
       <c r="B10" t="s">
@@ -943,8 +997,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>20190213</v>
       </c>
       <c r="B11" t="s">
@@ -963,8 +1017,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>20190214</v>
       </c>
       <c r="B12" t="s">
@@ -983,28 +1037,28 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>20190214</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>0.5</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>20190214</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1023,8 +1077,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>20190214</v>
       </c>
       <c r="B15" t="s">
@@ -1040,8 +1094,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>20190214</v>
       </c>
       <c r="B16" t="s">
@@ -1054,8 +1108,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>20190214</v>
       </c>
       <c r="B17" t="s">
@@ -1068,8 +1122,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>20190214</v>
       </c>
       <c r="B18" t="s">
@@ -1082,8 +1136,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>20190214</v>
       </c>
       <c r="B19" t="s">
@@ -1096,8 +1150,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>20190215</v>
       </c>
       <c r="B20" t="s">
@@ -1110,8 +1164,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>20190215</v>
       </c>
       <c r="B21" t="s">
@@ -1124,8 +1178,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>20190215</v>
       </c>
       <c r="B22" t="s">
@@ -1138,8 +1192,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>20190215</v>
       </c>
       <c r="B23" t="s">
@@ -1152,8 +1206,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>20190215</v>
       </c>
       <c r="B24" t="s">
@@ -1166,8 +1220,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>20190215</v>
       </c>
       <c r="B25" t="s">
@@ -1180,8 +1234,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>20190215</v>
       </c>
       <c r="B26" t="s">
@@ -1194,8 +1248,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>20190216</v>
       </c>
       <c r="B27" t="s">
@@ -1208,8 +1262,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>20190216</v>
       </c>
       <c r="B28" t="s">
@@ -1222,8 +1276,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>20190216</v>
       </c>
       <c r="B29" t="s">
@@ -1236,8 +1290,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>20190216</v>
       </c>
       <c r="B30" t="s">
@@ -1250,8 +1304,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>20190216</v>
       </c>
       <c r="B31" t="s">
@@ -1264,8 +1318,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>20190216</v>
       </c>
       <c r="B32" t="s">
@@ -1278,8 +1332,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>20190216</v>
       </c>
       <c r="E33" t="s">
@@ -1289,8 +1343,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>20190216</v>
       </c>
       <c r="E34" t="s">
@@ -1300,8 +1354,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>20190217</v>
       </c>
       <c r="B35" t="s">
@@ -1314,8 +1368,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>20190217</v>
       </c>
       <c r="B36" t="s">
@@ -1328,8 +1382,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>20190217</v>
       </c>
       <c r="B37" t="s">
@@ -1342,8 +1396,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>20190218</v>
       </c>
       <c r="B38" t="s">
@@ -1356,8 +1410,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>20190218</v>
       </c>
       <c r="B39" t="s">
@@ -1370,8 +1424,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>20190218</v>
       </c>
       <c r="B40" t="s">
@@ -1384,8 +1438,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>20190218</v>
       </c>
       <c r="B41" t="s">
@@ -1398,8 +1452,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>20190219</v>
       </c>
       <c r="B42" t="s">
@@ -1412,8 +1466,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>20190219</v>
       </c>
       <c r="B43" t="s">
@@ -1426,8 +1480,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>20190219</v>
       </c>
       <c r="B44" t="s">
@@ -1440,8 +1494,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>20190219</v>
       </c>
       <c r="E45" t="s">
@@ -1451,8 +1505,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>20190220</v>
       </c>
       <c r="E46" t="s">
@@ -1462,8 +1516,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>20190220</v>
       </c>
       <c r="E47" t="s">
@@ -1473,8 +1527,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>20190220</v>
       </c>
       <c r="E48" t="s">
@@ -1484,8 +1538,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>20190220</v>
       </c>
       <c r="E49" t="s">
@@ -1495,8 +1549,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>20190227</v>
       </c>
       <c r="B50" t="s">
@@ -1509,8 +1563,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>20190227</v>
       </c>
       <c r="B51" t="s">
@@ -1523,8 +1577,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>20190228</v>
       </c>
       <c r="B52" t="s">
@@ -1537,8 +1591,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>20190228</v>
       </c>
       <c r="B53" t="s">
@@ -1551,8 +1605,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>20190228</v>
       </c>
       <c r="B54" t="s">
@@ -1565,8 +1619,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>20190302</v>
       </c>
       <c r="B55" t="s">
@@ -1579,8 +1633,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>20190302</v>
       </c>
       <c r="B56" t="s">
@@ -1593,8 +1647,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>20190302</v>
       </c>
       <c r="E57" t="s">
@@ -1604,8 +1658,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>20190302</v>
       </c>
       <c r="E58" t="s">
@@ -1615,8 +1669,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>20190309</v>
       </c>
       <c r="B59" t="s">
@@ -1629,40 +1683,224 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>20190309</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
+      <c r="F60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>20190309</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20190309</v>
       </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
       <c r="E62" t="s">
         <v>66</v>
+      </c>
+      <c r="F62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>20190310</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>20190310</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>20190310</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>20190310</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>20190314</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>20190314</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>20190316</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>20190316</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>20190317</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>20190317</v>
+      </c>
+      <c r="E72" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>20190323</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>20190323</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>20190323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>20190323</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4682C1-B348-4F65-AC89-29BA0D892229}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7000C-3F62-48DF-9075-51A0510F66F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="87">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,22 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张拓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语巩固1至3课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《为人民服务》这篇课文1至3段看完。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,7 +423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +433,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,13 +491,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -776,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -795,7 +847,7 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -818,7 +870,7 @@
       <c r="A2" s="2">
         <v>20190212</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
@@ -841,7 +893,7 @@
       <c r="A3" s="2">
         <v>20190212</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -861,7 +913,7 @@
       <c r="A4" s="2">
         <v>20190213</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
@@ -881,7 +933,7 @@
       <c r="A5" s="2">
         <v>21090213</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1">
@@ -901,7 +953,7 @@
       <c r="A6" s="2">
         <v>20190213</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1">
@@ -921,7 +973,7 @@
       <c r="A7" s="2">
         <v>20190213</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
@@ -941,7 +993,7 @@
       <c r="A8" s="2">
         <v>20190213</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1">
@@ -961,7 +1013,7 @@
       <c r="A9" s="2">
         <v>20190213</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1">
@@ -981,7 +1033,7 @@
       <c r="A10" s="2">
         <v>20190113</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1">
@@ -1001,7 +1053,7 @@
       <c r="A11" s="2">
         <v>20190213</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1">
@@ -1021,7 +1073,7 @@
       <c r="A12" s="2">
         <v>20190214</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1">
@@ -1041,7 +1093,7 @@
       <c r="A13" s="2">
         <v>20190214</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="1">
@@ -1061,19 +1113,19 @@
       <c r="A14" s="3">
         <v>20190214</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1081,7 +1133,7 @@
       <c r="A15" s="2">
         <v>20190214</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1">
@@ -1098,7 +1150,7 @@
       <c r="A16" s="2">
         <v>20190214</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
@@ -1112,7 +1164,7 @@
       <c r="A17" s="2">
         <v>20190214</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E17" t="s">
@@ -1126,7 +1178,7 @@
       <c r="A18" s="2">
         <v>20190214</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
@@ -1140,7 +1192,7 @@
       <c r="A19" s="2">
         <v>20190214</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E19" t="s">
@@ -1154,7 +1206,7 @@
       <c r="A20" s="2">
         <v>20190215</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E20" t="s">
@@ -1168,7 +1220,7 @@
       <c r="A21" s="2">
         <v>20190215</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E21" t="s">
@@ -1182,7 +1234,7 @@
       <c r="A22" s="2">
         <v>20190215</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E22" t="s">
@@ -1196,7 +1248,7 @@
       <c r="A23" s="2">
         <v>20190215</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E23" t="s">
@@ -1210,7 +1262,7 @@
       <c r="A24" s="2">
         <v>20190215</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E24" t="s">
@@ -1224,7 +1276,7 @@
       <c r="A25" s="2">
         <v>20190215</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="s">
@@ -1238,7 +1290,7 @@
       <c r="A26" s="2">
         <v>20190215</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E26" t="s">
@@ -1252,7 +1304,7 @@
       <c r="A27" s="2">
         <v>20190216</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E27" t="s">
@@ -1266,7 +1318,7 @@
       <c r="A28" s="2">
         <v>20190216</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E28" t="s">
@@ -1280,7 +1332,7 @@
       <c r="A29" s="2">
         <v>20190216</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E29" t="s">
@@ -1294,7 +1346,7 @@
       <c r="A30" s="2">
         <v>20190216</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E30" t="s">
@@ -1308,7 +1360,7 @@
       <c r="A31" s="2">
         <v>20190216</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E31" t="s">
@@ -1322,7 +1374,7 @@
       <c r="A32" s="2">
         <v>20190216</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E32" t="s">
@@ -1336,6 +1388,7 @@
       <c r="A33" s="2">
         <v>20190216</v>
       </c>
+      <c r="B33" s="9"/>
       <c r="E33" t="s">
         <v>19</v>
       </c>
@@ -1347,6 +1400,7 @@
       <c r="A34" s="2">
         <v>20190216</v>
       </c>
+      <c r="B34" s="9"/>
       <c r="E34" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1412,7 @@
       <c r="A35" s="2">
         <v>20190217</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
@@ -1372,7 +1426,7 @@
       <c r="A36" s="2">
         <v>20190217</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E36" t="s">
@@ -1386,7 +1440,7 @@
       <c r="A37" s="2">
         <v>20190217</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E37" t="s">
@@ -1400,7 +1454,7 @@
       <c r="A38" s="2">
         <v>20190218</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E38" t="s">
@@ -1414,7 +1468,7 @@
       <c r="A39" s="2">
         <v>20190218</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E39" t="s">
@@ -1428,7 +1482,7 @@
       <c r="A40" s="2">
         <v>20190218</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E40" t="s">
@@ -1442,7 +1496,7 @@
       <c r="A41" s="2">
         <v>20190218</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E41" t="s">
@@ -1456,7 +1510,7 @@
       <c r="A42" s="2">
         <v>20190219</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E42" t="s">
@@ -1470,7 +1524,7 @@
       <c r="A43" s="2">
         <v>20190219</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E43" t="s">
@@ -1484,7 +1538,7 @@
       <c r="A44" s="2">
         <v>20190219</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E44" t="s">
@@ -1498,6 +1552,7 @@
       <c r="A45" s="2">
         <v>20190219</v>
       </c>
+      <c r="B45" s="9"/>
       <c r="E45" t="s">
         <v>19</v>
       </c>
@@ -1509,6 +1564,7 @@
       <c r="A46" s="2">
         <v>20190220</v>
       </c>
+      <c r="B46" s="9"/>
       <c r="E46" t="s">
         <v>19</v>
       </c>
@@ -1520,6 +1576,7 @@
       <c r="A47" s="2">
         <v>20190220</v>
       </c>
+      <c r="B47" s="9"/>
       <c r="E47" t="s">
         <v>19</v>
       </c>
@@ -1531,6 +1588,7 @@
       <c r="A48" s="2">
         <v>20190220</v>
       </c>
+      <c r="B48" s="9"/>
       <c r="E48" t="s">
         <v>19</v>
       </c>
@@ -1542,6 +1600,7 @@
       <c r="A49" s="2">
         <v>20190220</v>
       </c>
+      <c r="B49" s="9"/>
       <c r="E49" t="s">
         <v>19</v>
       </c>
@@ -1553,7 +1612,7 @@
       <c r="A50" s="2">
         <v>20190227</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E50" t="s">
@@ -1567,7 +1626,7 @@
       <c r="A51" s="2">
         <v>20190227</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E51" t="s">
@@ -1581,7 +1640,7 @@
       <c r="A52" s="2">
         <v>20190228</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E52" t="s">
@@ -1595,7 +1654,7 @@
       <c r="A53" s="2">
         <v>20190228</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E53" t="s">
@@ -1609,7 +1668,7 @@
       <c r="A54" s="2">
         <v>20190228</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E54" t="s">
@@ -1623,7 +1682,7 @@
       <c r="A55" s="2">
         <v>20190302</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E55" t="s">
@@ -1637,7 +1696,7 @@
       <c r="A56" s="2">
         <v>20190302</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E56" t="s">
@@ -1651,6 +1710,7 @@
       <c r="A57" s="2">
         <v>20190302</v>
       </c>
+      <c r="B57" s="9"/>
       <c r="E57" t="s">
         <v>63</v>
       </c>
@@ -1662,6 +1722,7 @@
       <c r="A58" s="2">
         <v>20190302</v>
       </c>
+      <c r="B58" s="9"/>
       <c r="E58" t="s">
         <v>63</v>
       </c>
@@ -1673,7 +1734,7 @@
       <c r="A59" s="2">
         <v>20190309</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E59" t="s">
@@ -1687,7 +1748,7 @@
       <c r="A60" s="2">
         <v>20190309</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E60" t="s">
@@ -1701,7 +1762,7 @@
       <c r="A61" s="2">
         <v>20190309</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E61" t="s">
@@ -1715,7 +1776,7 @@
       <c r="A62">
         <v>20190309</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="9">
         <v>22</v>
       </c>
       <c r="E62" t="s">
@@ -1729,7 +1790,7 @@
       <c r="A63" s="2">
         <v>20190310</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E63" t="s">
@@ -1743,7 +1804,7 @@
       <c r="A64" s="2">
         <v>20190310</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E64" t="s">
@@ -1757,7 +1818,7 @@
       <c r="A65" s="2">
         <v>20190310</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E65" t="s">
@@ -1771,7 +1832,7 @@
       <c r="A66" s="2">
         <v>20190310</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E66" t="s">
@@ -1785,7 +1846,7 @@
       <c r="A67" s="2">
         <v>20190314</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E67" t="s">
@@ -1799,7 +1860,7 @@
       <c r="A68" s="2">
         <v>20190314</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E68" t="s">
@@ -1813,7 +1874,7 @@
       <c r="A69" s="2">
         <v>20190316</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E69" t="s">
@@ -1827,7 +1888,7 @@
       <c r="A70" s="2">
         <v>20190316</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E70" t="s">
@@ -1841,7 +1902,7 @@
       <c r="A71" s="2">
         <v>20190317</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E71" t="s">
@@ -1855,6 +1916,7 @@
       <c r="A72" s="2">
         <v>20190317</v>
       </c>
+      <c r="B72" s="7"/>
       <c r="E72" t="s">
         <v>81</v>
       </c>
@@ -1866,7 +1928,7 @@
       <c r="A73" s="2">
         <v>20190323</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E73" t="s">
@@ -1880,6 +1942,9 @@
       <c r="A74" s="2">
         <v>20190323</v>
       </c>
+      <c r="B74" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="E74" t="s">
         <v>81</v>
       </c>
@@ -1890,6 +1955,15 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>20190323</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7000C-3F62-48DF-9075-51A0510F66F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F117864-E579-4296-957C-2A8E632E4FAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="90">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《为人民服务》这篇课文1至3段背完。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把语文书预习16和17课。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《猎人笔记》从104页看到203页。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,20 +422,20 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,12 +466,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -475,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,16 +491,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -506,10 +509,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -847,7 +850,7 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -870,7 +873,7 @@
       <c r="A2" s="2">
         <v>20190212</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
@@ -893,7 +896,7 @@
       <c r="A3" s="2">
         <v>20190212</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -913,7 +916,7 @@
       <c r="A4" s="2">
         <v>20190213</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
@@ -933,7 +936,7 @@
       <c r="A5" s="2">
         <v>21090213</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1">
@@ -953,7 +956,7 @@
       <c r="A6" s="2">
         <v>20190213</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1">
@@ -973,7 +976,7 @@
       <c r="A7" s="2">
         <v>20190213</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
@@ -993,7 +996,7 @@
       <c r="A8" s="2">
         <v>20190213</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1">
@@ -1013,7 +1016,7 @@
       <c r="A9" s="2">
         <v>20190213</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1">
@@ -1033,7 +1036,7 @@
       <c r="A10" s="2">
         <v>20190113</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1">
@@ -1053,7 +1056,7 @@
       <c r="A11" s="2">
         <v>20190213</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1">
@@ -1073,7 +1076,7 @@
       <c r="A12" s="2">
         <v>20190214</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1">
@@ -1093,7 +1096,7 @@
       <c r="A13" s="2">
         <v>20190214</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="1">
@@ -1105,27 +1108,27 @@
       <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="9">
         <v>20190214</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1133,7 +1136,7 @@
       <c r="A15" s="2">
         <v>20190214</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1">
@@ -1150,7 +1153,7 @@
       <c r="A16" s="2">
         <v>20190214</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
@@ -1164,7 +1167,7 @@
       <c r="A17" s="2">
         <v>20190214</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E17" t="s">
@@ -1178,7 +1181,7 @@
       <c r="A18" s="2">
         <v>20190214</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
@@ -1192,7 +1195,7 @@
       <c r="A19" s="2">
         <v>20190214</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E19" t="s">
@@ -1206,7 +1209,7 @@
       <c r="A20" s="2">
         <v>20190215</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E20" t="s">
@@ -1220,7 +1223,7 @@
       <c r="A21" s="2">
         <v>20190215</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E21" t="s">
@@ -1234,7 +1237,7 @@
       <c r="A22" s="2">
         <v>20190215</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E22" t="s">
@@ -1248,7 +1251,7 @@
       <c r="A23" s="2">
         <v>20190215</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E23" t="s">
@@ -1262,7 +1265,7 @@
       <c r="A24" s="2">
         <v>20190215</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E24" t="s">
@@ -1276,7 +1279,7 @@
       <c r="A25" s="2">
         <v>20190215</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="s">
@@ -1290,7 +1293,7 @@
       <c r="A26" s="2">
         <v>20190215</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E26" t="s">
@@ -1304,7 +1307,7 @@
       <c r="A27" s="2">
         <v>20190216</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E27" t="s">
@@ -1318,7 +1321,7 @@
       <c r="A28" s="2">
         <v>20190216</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E28" t="s">
@@ -1332,7 +1335,7 @@
       <c r="A29" s="2">
         <v>20190216</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E29" t="s">
@@ -1346,7 +1349,7 @@
       <c r="A30" s="2">
         <v>20190216</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E30" t="s">
@@ -1360,7 +1363,7 @@
       <c r="A31" s="2">
         <v>20190216</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E31" t="s">
@@ -1374,7 +1377,7 @@
       <c r="A32" s="2">
         <v>20190216</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E32" t="s">
@@ -1388,7 +1391,7 @@
       <c r="A33" s="2">
         <v>20190216</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
       <c r="E33" t="s">
         <v>19</v>
       </c>
@@ -1400,7 +1403,7 @@
       <c r="A34" s="2">
         <v>20190216</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="8"/>
       <c r="E34" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1415,7 @@
       <c r="A35" s="2">
         <v>20190217</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
@@ -1426,7 +1429,7 @@
       <c r="A36" s="2">
         <v>20190217</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E36" t="s">
@@ -1440,7 +1443,7 @@
       <c r="A37" s="2">
         <v>20190217</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E37" t="s">
@@ -1454,7 +1457,7 @@
       <c r="A38" s="2">
         <v>20190218</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E38" t="s">
@@ -1468,7 +1471,7 @@
       <c r="A39" s="2">
         <v>20190218</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E39" t="s">
@@ -1482,7 +1485,7 @@
       <c r="A40" s="2">
         <v>20190218</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E40" t="s">
@@ -1496,7 +1499,7 @@
       <c r="A41" s="2">
         <v>20190218</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E41" t="s">
@@ -1510,7 +1513,7 @@
       <c r="A42" s="2">
         <v>20190219</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E42" t="s">
@@ -1524,7 +1527,7 @@
       <c r="A43" s="2">
         <v>20190219</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E43" t="s">
@@ -1538,7 +1541,7 @@
       <c r="A44" s="2">
         <v>20190219</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E44" t="s">
@@ -1552,7 +1555,7 @@
       <c r="A45" s="2">
         <v>20190219</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="8"/>
       <c r="E45" t="s">
         <v>19</v>
       </c>
@@ -1564,7 +1567,7 @@
       <c r="A46" s="2">
         <v>20190220</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="8"/>
       <c r="E46" t="s">
         <v>19</v>
       </c>
@@ -1576,7 +1579,7 @@
       <c r="A47" s="2">
         <v>20190220</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="8"/>
       <c r="E47" t="s">
         <v>19</v>
       </c>
@@ -1588,7 +1591,7 @@
       <c r="A48" s="2">
         <v>20190220</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="8"/>
       <c r="E48" t="s">
         <v>19</v>
       </c>
@@ -1600,7 +1603,7 @@
       <c r="A49" s="2">
         <v>20190220</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="8"/>
       <c r="E49" t="s">
         <v>19</v>
       </c>
@@ -1612,7 +1615,7 @@
       <c r="A50" s="2">
         <v>20190227</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E50" t="s">
@@ -1626,7 +1629,7 @@
       <c r="A51" s="2">
         <v>20190227</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E51" t="s">
@@ -1640,7 +1643,7 @@
       <c r="A52" s="2">
         <v>20190228</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E52" t="s">
@@ -1654,7 +1657,7 @@
       <c r="A53" s="2">
         <v>20190228</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E53" t="s">
@@ -1668,7 +1671,7 @@
       <c r="A54" s="2">
         <v>20190228</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E54" t="s">
@@ -1682,7 +1685,7 @@
       <c r="A55" s="2">
         <v>20190302</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E55" t="s">
@@ -1696,7 +1699,7 @@
       <c r="A56" s="2">
         <v>20190302</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E56" t="s">
@@ -1710,7 +1713,7 @@
       <c r="A57" s="2">
         <v>20190302</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="8"/>
       <c r="E57" t="s">
         <v>63</v>
       </c>
@@ -1722,7 +1725,7 @@
       <c r="A58" s="2">
         <v>20190302</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="8"/>
       <c r="E58" t="s">
         <v>63</v>
       </c>
@@ -1734,7 +1737,7 @@
       <c r="A59" s="2">
         <v>20190309</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E59" t="s">
@@ -1748,7 +1751,7 @@
       <c r="A60" s="2">
         <v>20190309</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E60" t="s">
@@ -1762,7 +1765,7 @@
       <c r="A61" s="2">
         <v>20190309</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>69</v>
       </c>
       <c r="E61" t="s">
@@ -1773,10 +1776,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>20190309</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>22</v>
       </c>
       <c r="E62" t="s">
@@ -1790,7 +1793,7 @@
       <c r="A63" s="2">
         <v>20190310</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E63" t="s">
@@ -1804,7 +1807,7 @@
       <c r="A64" s="2">
         <v>20190310</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E64" t="s">
@@ -1818,7 +1821,7 @@
       <c r="A65" s="2">
         <v>20190310</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E65" t="s">
@@ -1832,7 +1835,7 @@
       <c r="A66" s="2">
         <v>20190310</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E66" t="s">
@@ -1846,7 +1849,7 @@
       <c r="A67" s="2">
         <v>20190314</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E67" t="s">
@@ -1860,7 +1863,7 @@
       <c r="A68" s="2">
         <v>20190314</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E68" t="s">
@@ -1874,7 +1877,7 @@
       <c r="A69" s="2">
         <v>20190316</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E69" t="s">
@@ -1888,7 +1891,7 @@
       <c r="A70" s="2">
         <v>20190316</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E70" t="s">
@@ -1902,7 +1905,7 @@
       <c r="A71" s="2">
         <v>20190317</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E71" t="s">
@@ -1916,7 +1919,7 @@
       <c r="A72" s="2">
         <v>20190317</v>
       </c>
-      <c r="B72" s="7"/>
+      <c r="B72" s="6"/>
       <c r="E72" t="s">
         <v>81</v>
       </c>
@@ -1928,7 +1931,7 @@
       <c r="A73" s="2">
         <v>20190323</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E73" t="s">
@@ -1942,7 +1945,7 @@
       <c r="A74" s="2">
         <v>20190323</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E74" t="s">
@@ -1956,7 +1959,7 @@
       <c r="A75" s="2">
         <v>20190323</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E75" t="s">
@@ -1968,7 +1971,26 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>20190323</v>
+        <v>20190324</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>20190324</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>20190324</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/zhangtuo.xlsx
+++ b/zhangtuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F117864-E579-4296-957C-2A8E632E4FAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDFA53F-C3BF-42A3-9497-BFDA2BF699B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +387,10 @@
   </si>
   <si>
     <t>把《猎人笔记》从104页看到203页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把《三国演义》从56回合看到65回合。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1993,6 +1997,29 @@
         <v>89</v>
       </c>
     </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>20190330</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>20190330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>20190330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>20190330</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
